--- a/evaluation/2.1_evaluation_automated_vs_manuel_transformation.xlsx
+++ b/evaluation/2.1_evaluation_automated_vs_manuel_transformation.xlsx
@@ -411,7 +411,7 @@
   <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/evaluation/2.1_evaluation_automated_vs_manuel_transformation.xlsx
+++ b/evaluation/2.1_evaluation_automated_vs_manuel_transformation.xlsx
@@ -411,7 +411,7 @@
   <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
